--- a/Code/Results/Cases/Case_1_149/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_149/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8521208275106176</v>
+        <v>1.466326861123889</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1291596682543599</v>
+        <v>0.03958538122239474</v>
       </c>
       <c r="E2">
-        <v>0.02901575811907531</v>
+        <v>0.06367431157244452</v>
       </c>
       <c r="F2">
-        <v>7.489423142878906</v>
+        <v>6.676538951618966</v>
       </c>
       <c r="G2">
-        <v>0.0008709759672283034</v>
+        <v>0.002680767426274793</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1726401080804827</v>
+        <v>0.2144512998220023</v>
       </c>
       <c r="K2">
-        <v>1.309728604729173</v>
+        <v>1.334000927136486</v>
       </c>
       <c r="L2">
-        <v>0.1802258212964745</v>
+        <v>0.3224214161660939</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7767998755520011</v>
+        <v>1.461440581020781</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1123818345675431</v>
+        <v>0.034624188147518</v>
       </c>
       <c r="E3">
-        <v>0.02826005643703144</v>
+        <v>0.06344276164392859</v>
       </c>
       <c r="F3">
-        <v>6.830989091001157</v>
+        <v>6.487217307807725</v>
       </c>
       <c r="G3">
-        <v>0.0008806837698851488</v>
+        <v>0.002686487173836127</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1644218111132467</v>
+        <v>0.2115868418418749</v>
       </c>
       <c r="K3">
-        <v>1.140882664548144</v>
+        <v>1.313392082407518</v>
       </c>
       <c r="L3">
-        <v>0.1596992157346051</v>
+        <v>0.3233204852921148</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.732288843590311</v>
+        <v>1.459387964095555</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1022318623536336</v>
+        <v>0.0315711425036227</v>
       </c>
       <c r="E4">
-        <v>0.02780831526257721</v>
+        <v>0.06329753118593784</v>
       </c>
       <c r="F4">
-        <v>6.434147935224416</v>
+        <v>6.37171629586993</v>
       </c>
       <c r="G4">
-        <v>0.0008867937898820208</v>
+        <v>0.002690181294898854</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1594434510029821</v>
+        <v>0.2097969764911838</v>
       </c>
       <c r="K4">
-        <v>1.040655060096128</v>
+        <v>1.302104696073826</v>
       </c>
       <c r="L4">
-        <v>0.1477242642813152</v>
+        <v>0.3241938423872952</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7145522426430091</v>
+        <v>1.45878988887722</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09812720527510521</v>
+        <v>0.03032512222974049</v>
       </c>
       <c r="E5">
-        <v>0.0276266858537686</v>
+        <v>0.06323756579672768</v>
       </c>
       <c r="F5">
-        <v>6.274055694589919</v>
+        <v>6.324831445438861</v>
       </c>
       <c r="G5">
-        <v>0.0008893232858599496</v>
+        <v>0.002691732651452601</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1574278356644676</v>
+        <v>0.2090596529514777</v>
       </c>
       <c r="K5">
-        <v>1.000583755999799</v>
+        <v>1.297847686488268</v>
       </c>
       <c r="L5">
-        <v>0.1429875248827059</v>
+        <v>0.3246304288322222</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.711630417754975</v>
+        <v>1.458704980041261</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09744735241849867</v>
+        <v>0.03011810345370236</v>
       </c>
       <c r="E6">
-        <v>0.02759665795200639</v>
+        <v>0.0632275609081614</v>
       </c>
       <c r="F6">
-        <v>6.247563739004534</v>
+        <v>6.317057169088514</v>
       </c>
       <c r="G6">
-        <v>0.0008897457562262013</v>
+        <v>0.002691993034184239</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1570938279347374</v>
+        <v>0.2089367378218938</v>
       </c>
       <c r="K6">
-        <v>0.9939740051056276</v>
+        <v>1.297161484278575</v>
       </c>
       <c r="L6">
-        <v>0.1422092296838002</v>
+        <v>0.3247077937091234</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7320480574719284</v>
+        <v>1.459378932901814</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1021763861371312</v>
+        <v>0.03155434605145047</v>
       </c>
       <c r="E7">
-        <v>0.0278058565656778</v>
+        <v>0.06329672565859878</v>
       </c>
       <c r="F7">
-        <v>6.43198261228099</v>
+        <v>6.37108325593104</v>
       </c>
       <c r="G7">
-        <v>0.0008868277405210082</v>
+        <v>0.002690202030717925</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1594162195661006</v>
+        <v>0.2097870649932645</v>
       </c>
       <c r="K7">
-        <v>1.040111635523772</v>
+        <v>1.3020458982393</v>
       </c>
       <c r="L7">
-        <v>0.1476598220170189</v>
+        <v>0.3241994037994331</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8257679767737045</v>
+        <v>1.464445455863938</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.123339030106095</v>
+        <v>0.0378760887763292</v>
       </c>
       <c r="E8">
-        <v>0.02875224856243941</v>
+        <v>0.06359509938244234</v>
       </c>
       <c r="F8">
-        <v>7.260695292315063</v>
+        <v>6.611104026415916</v>
       </c>
       <c r="G8">
-        <v>0.0008742934989890857</v>
+        <v>0.002682701883713598</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1697899123745898</v>
+        <v>0.2134700090986676</v>
       </c>
       <c r="K8">
-        <v>1.250736301748475</v>
+        <v>1.326610793713627</v>
       </c>
       <c r="L8">
-        <v>0.173008399557304</v>
+        <v>0.3226646532218354</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.025070832620031</v>
+        <v>1.48189833754131</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1663742166367115</v>
+        <v>0.05022620431992664</v>
       </c>
       <c r="E9">
-        <v>0.03073777543640155</v>
+        <v>0.06415659284751207</v>
       </c>
       <c r="F9">
-        <v>8.957246827920955</v>
+        <v>7.087893104747536</v>
       </c>
       <c r="G9">
-        <v>0.0008507967827361785</v>
+        <v>0.002669432124654762</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1908679423856725</v>
+        <v>0.2204515035295813</v>
       </c>
       <c r="K9">
-        <v>1.695853497993426</v>
+        <v>1.385673984544269</v>
       </c>
       <c r="L9">
-        <v>0.2284578543191742</v>
+        <v>0.3222105579430661</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.183700142662815</v>
+        <v>1.49930747183933</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1994499725595347</v>
+        <v>0.05928255192793586</v>
       </c>
       <c r="E10">
-        <v>0.03232837089803375</v>
+        <v>0.06455564948053061</v>
       </c>
       <c r="F10">
-        <v>10.26677837952769</v>
+        <v>7.442243346990466</v>
       </c>
       <c r="G10">
-        <v>0.0008340334559091556</v>
+        <v>0.002660549019360047</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2071160599294686</v>
+        <v>0.2254424290246391</v>
       </c>
       <c r="K10">
-        <v>2.049982230891118</v>
+        <v>1.435784594895324</v>
       </c>
       <c r="L10">
-        <v>0.2738958635352589</v>
+        <v>0.323444391816011</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.25922694503268</v>
+        <v>1.508224594396296</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2149492933299229</v>
+        <v>0.06340124654663271</v>
       </c>
       <c r="E11">
-        <v>0.03309505905442656</v>
+        <v>0.06473446916241787</v>
       </c>
       <c r="F11">
-        <v>10.88128169174411</v>
+        <v>7.604400330647252</v>
       </c>
       <c r="G11">
-        <v>0.0008264743934354168</v>
+        <v>0.002656693712033554</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2147558625629173</v>
+        <v>0.2276847154870509</v>
       </c>
       <c r="K11">
-        <v>2.218956914149942</v>
+        <v>1.46005741914243</v>
       </c>
       <c r="L11">
-        <v>0.2959042999207355</v>
+        <v>0.3243482811191853</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.288380053962754</v>
+        <v>1.511744776808314</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.220896804805264</v>
+        <v>0.06496091869037457</v>
       </c>
       <c r="E12">
-        <v>0.03339305476680332</v>
+        <v>0.06480180972423399</v>
       </c>
       <c r="F12">
-        <v>11.11717088201345</v>
+        <v>7.66594849309439</v>
       </c>
       <c r="G12">
-        <v>0.0008236175508645335</v>
+        <v>0.002655260334331739</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2176927026669304</v>
+        <v>0.228529910956162</v>
       </c>
       <c r="K12">
-        <v>2.284271634010338</v>
+        <v>1.469462657890205</v>
       </c>
       <c r="L12">
-        <v>0.3044620569493333</v>
+        <v>0.3247400018866529</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.282075626941889</v>
+        <v>1.510980261824557</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2196121923974346</v>
+        <v>0.06462501217649219</v>
       </c>
       <c r="E13">
-        <v>0.03332850886188776</v>
+        <v>0.06478732313794655</v>
       </c>
       <c r="F13">
-        <v>11.06621753318063</v>
+        <v>7.652686568630997</v>
       </c>
       <c r="G13">
-        <v>0.0008242326429869127</v>
+        <v>0.002655567859731978</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2170581111004353</v>
+        <v>0.2283480547566086</v>
       </c>
       <c r="K13">
-        <v>2.270142476917783</v>
+        <v>1.46742754965598</v>
       </c>
       <c r="L13">
-        <v>0.3026084966790705</v>
+        <v>0.3246534362851605</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.261613882360166</v>
+        <v>1.508511326662131</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2154369485388514</v>
+        <v>0.06352956050905334</v>
       </c>
       <c r="E14">
-        <v>0.03311941233622617</v>
+        <v>0.06474001672771212</v>
       </c>
       <c r="F14">
-        <v>10.90062146268843</v>
+        <v>7.609461045870091</v>
       </c>
       <c r="G14">
-        <v>0.0008262392716482737</v>
+        <v>0.002656575256334257</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2149965494217128</v>
+        <v>0.2277543278209677</v>
       </c>
       <c r="K14">
-        <v>2.224302567595601</v>
+        <v>1.460826904886517</v>
       </c>
       <c r="L14">
-        <v>0.2966036741134843</v>
+        <v>0.3243795164242727</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.249154663155196</v>
+        <v>1.507017715897234</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2128901031960311</v>
+        <v>0.0628585712803158</v>
       </c>
       <c r="E15">
-        <v>0.03299238118844849</v>
+        <v>0.06471099187228324</v>
       </c>
       <c r="F15">
-        <v>10.79962018332753</v>
+        <v>7.583002903636952</v>
       </c>
       <c r="G15">
-        <v>0.0008274689927471328</v>
+        <v>0.002657195767904959</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2137397497660132</v>
+        <v>0.2273901477158944</v>
       </c>
       <c r="K15">
-        <v>2.196403474952319</v>
+        <v>1.456811679284897</v>
       </c>
       <c r="L15">
-        <v>0.2929556774036541</v>
+        <v>0.3242181759822671</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.178837677844314</v>
+        <v>1.49874479171163</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1984472507657387</v>
+        <v>0.05901337805003948</v>
       </c>
       <c r="E16">
-        <v>0.0322792533573284</v>
+        <v>0.06454390992382697</v>
       </c>
       <c r="F16">
-        <v>10.22703746691201</v>
+        <v>7.431665742052559</v>
       </c>
       <c r="G16">
-        <v>0.0008345284723010316</v>
+        <v>0.002660804695648875</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2066224445972367</v>
+        <v>0.2252953359794887</v>
       </c>
       <c r="K16">
-        <v>2.039113884157587</v>
+        <v>1.434228138383673</v>
       </c>
       <c r="L16">
-        <v>0.2724870531847756</v>
+        <v>0.3233922291721854</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.136608516415436</v>
+        <v>1.493925134590143</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1897118229859558</v>
+        <v>0.05665431794614051</v>
       </c>
       <c r="E17">
-        <v>0.03185378244046033</v>
+        <v>0.06444072665748868</v>
       </c>
       <c r="F17">
-        <v>9.880915989518087</v>
+        <v>7.339074756259095</v>
       </c>
       <c r="G17">
-        <v>0.0008388736461739713</v>
+        <v>0.002663066098240741</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.202325230698591</v>
+        <v>0.2240031310109174</v>
       </c>
       <c r="K17">
-        <v>1.944769668688053</v>
+        <v>1.420753085231297</v>
       </c>
       <c r="L17">
-        <v>0.2602937799607901</v>
+        <v>0.322973407944886</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.112631564286943</v>
+        <v>1.491246894923222</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1847291892886602</v>
+        <v>0.05529733689422756</v>
       </c>
       <c r="E18">
-        <v>0.03161301985112441</v>
+        <v>0.06438112204682689</v>
       </c>
       <c r="F18">
-        <v>9.683571882224697</v>
+        <v>7.285909071605317</v>
       </c>
       <c r="G18">
-        <v>0.0008413794172081329</v>
+        <v>0.002664384281722959</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1998764237141515</v>
+        <v>0.2232572350045672</v>
       </c>
       <c r="K18">
-        <v>1.891233845184559</v>
+        <v>1.413141562474465</v>
       </c>
       <c r="L18">
-        <v>0.2534043951204552</v>
+        <v>0.3227647507689682</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.104565046548345</v>
+        <v>1.490356216390182</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1830489557899426</v>
+        <v>0.05483786209158836</v>
       </c>
       <c r="E19">
-        <v>0.03153214073373078</v>
+        <v>0.06436089645556553</v>
       </c>
       <c r="F19">
-        <v>9.617038884069871</v>
+        <v>7.267923437300226</v>
       </c>
       <c r="G19">
-        <v>0.0008422290642967498</v>
+        <v>0.002664833603573058</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.199050994617842</v>
+        <v>0.2230042276060047</v>
       </c>
       <c r="K19">
-        <v>1.873227179326591</v>
+        <v>1.410588263507606</v>
       </c>
       <c r="L19">
-        <v>0.251092165792258</v>
+        <v>0.3226996348013529</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.141071108635003</v>
+        <v>1.494428477070556</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1906373136459649</v>
+        <v>0.05690545431075122</v>
       </c>
       <c r="E20">
-        <v>0.03189865518372992</v>
+        <v>0.06445173710888774</v>
       </c>
       <c r="F20">
-        <v>9.91757823844145</v>
+        <v>7.348921856128754</v>
       </c>
       <c r="G20">
-        <v>0.0008384104450151019</v>
+        <v>0.002662823559617734</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.202780258133771</v>
+        <v>0.2241409621458175</v>
       </c>
       <c r="K20">
-        <v>1.954736058369662</v>
+        <v>1.422173135907741</v>
       </c>
       <c r="L20">
-        <v>0.2615787442322102</v>
+        <v>0.3230146544853625</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.267608394884149</v>
+        <v>1.509232619154204</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.216661081228736</v>
+        <v>0.06385131955255474</v>
       </c>
       <c r="E21">
-        <v>0.03318060796731981</v>
+        <v>0.06475392180746464</v>
       </c>
       <c r="F21">
-        <v>10.94917023334341</v>
+        <v>7.622153516303513</v>
       </c>
       <c r="G21">
-        <v>0.0008256497582407585</v>
+        <v>0.00265627864027357</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2156008204792101</v>
+        <v>0.2279288248624951</v>
       </c>
       <c r="K21">
-        <v>2.237729130640531</v>
+        <v>1.462759866052892</v>
       </c>
       <c r="L21">
-        <v>0.2983610944024377</v>
+        <v>0.3244586302192118</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.35356891576518</v>
+        <v>1.519744197646901</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2341327494414571</v>
+        <v>0.06839099206915478</v>
       </c>
       <c r="E22">
-        <v>0.03406401068168474</v>
+        <v>0.0649492411039887</v>
       </c>
       <c r="F22">
-        <v>11.64224802644759</v>
+        <v>7.801560916082906</v>
       </c>
       <c r="G22">
-        <v>0.0008173403467731891</v>
+        <v>0.002652155800564397</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.22423985211055</v>
+        <v>0.2303816853432821</v>
       </c>
       <c r="K22">
-        <v>2.430532728732942</v>
+        <v>1.490531528725342</v>
       </c>
       <c r="L22">
-        <v>0.3237221115723514</v>
+        <v>0.3256905949321123</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.30736643074647</v>
+        <v>1.514057451469796</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.224760530168993</v>
+        <v>0.06596801410347553</v>
       </c>
       <c r="E23">
-        <v>0.0335877963846829</v>
+        <v>0.06484518939814432</v>
       </c>
       <c r="F23">
-        <v>11.27043273151332</v>
+        <v>7.705729897148672</v>
       </c>
       <c r="G23">
-        <v>0.0008217739157550217</v>
+        <v>0.002654342138740046</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2196022410120975</v>
+        <v>0.2290745829918279</v>
       </c>
       <c r="K23">
-        <v>2.326839189039788</v>
+        <v>1.475594859095338</v>
       </c>
       <c r="L23">
-        <v>0.3100539407076894</v>
+        <v>0.3250066400173068</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.139052637734125</v>
+        <v>1.494200627365501</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1902187773127366</v>
+        <v>0.05679191783423221</v>
       </c>
       <c r="E24">
-        <v>0.03187835634309</v>
+        <v>0.0644467601669203</v>
       </c>
       <c r="F24">
-        <v>9.900998145579365</v>
+        <v>7.344469776717403</v>
       </c>
       <c r="G24">
-        <v>0.0008386198340788553</v>
+        <v>0.002662933154997476</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2025744731761137</v>
+        <v>0.2240786580133829</v>
       </c>
       <c r="K24">
-        <v>1.950228075349457</v>
+        <v>1.421530709145884</v>
       </c>
       <c r="L24">
-        <v>0.2609974382544635</v>
+        <v>0.3229959068634827</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9692294045942731</v>
+        <v>1.476371743253395</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1545175533365466</v>
+        <v>0.04688902291199781</v>
       </c>
       <c r="E25">
-        <v>0.03018179272210419</v>
+        <v>0.06400712755600235</v>
       </c>
       <c r="F25">
-        <v>8.488758839346161</v>
+        <v>6.958221205313237</v>
       </c>
       <c r="G25">
-        <v>0.0008570527922314023</v>
+        <v>0.00267286908120039</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1850570533679985</v>
+        <v>0.2185877341734965</v>
       </c>
       <c r="K25">
-        <v>1.571281974035259</v>
+        <v>1.368521958395377</v>
       </c>
       <c r="L25">
-        <v>0.2127282272183919</v>
+        <v>0.3220588503189674</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_149/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_149/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.466326861123889</v>
+        <v>0.8521208275105039</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03958538122239474</v>
+        <v>0.1291596682542462</v>
       </c>
       <c r="E2">
-        <v>0.06367431157244452</v>
+        <v>0.02901575811900114</v>
       </c>
       <c r="F2">
-        <v>6.676538951618966</v>
+        <v>7.489423142878934</v>
       </c>
       <c r="G2">
-        <v>0.002680767426274793</v>
+        <v>0.000870975967139672</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2144512998220023</v>
+        <v>0.1726401080804969</v>
       </c>
       <c r="K2">
-        <v>1.334000927136486</v>
+        <v>1.309728604729202</v>
       </c>
       <c r="L2">
-        <v>0.3224214161660939</v>
+        <v>0.1802258212966308</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.461440581020781</v>
+        <v>0.7767998755519727</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.034624188147518</v>
+        <v>0.1123818345679695</v>
       </c>
       <c r="E3">
-        <v>0.06344276164392859</v>
+        <v>0.02826005643698459</v>
       </c>
       <c r="F3">
-        <v>6.487217307807725</v>
+        <v>6.830989091001157</v>
       </c>
       <c r="G3">
-        <v>0.002686487173836127</v>
+        <v>0.0008806837698516732</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2115868418418749</v>
+        <v>0.1644218111131721</v>
       </c>
       <c r="K3">
-        <v>1.313392082407518</v>
+        <v>1.140882664548087</v>
       </c>
       <c r="L3">
-        <v>0.3233204852921148</v>
+        <v>0.1596992157346833</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.459387964095555</v>
+        <v>0.7322888435902541</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0315711425036227</v>
+        <v>0.1022318623540031</v>
       </c>
       <c r="E4">
-        <v>0.06329753118593784</v>
+        <v>0.0278083152626083</v>
       </c>
       <c r="F4">
-        <v>6.37171629586993</v>
+        <v>6.434147935224416</v>
       </c>
       <c r="G4">
-        <v>0.002690181294898854</v>
+        <v>0.000886793789881726</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2097969764911838</v>
+        <v>0.1594434510029856</v>
       </c>
       <c r="K4">
-        <v>1.302104696073826</v>
+        <v>1.0406550600961</v>
       </c>
       <c r="L4">
-        <v>0.3241938423872952</v>
+        <v>0.1477242642811945</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.45878988887722</v>
+        <v>0.7145522426431228</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03032512222974049</v>
+        <v>0.09812720527510521</v>
       </c>
       <c r="E5">
-        <v>0.06323756579672768</v>
+        <v>0.02762668585376749</v>
       </c>
       <c r="F5">
-        <v>6.324831445438861</v>
+        <v>6.274055694589947</v>
       </c>
       <c r="G5">
-        <v>0.002691732651452601</v>
+        <v>0.0008893232860348545</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2090596529514777</v>
+        <v>0.1574278356645671</v>
       </c>
       <c r="K5">
-        <v>1.297847686488268</v>
+        <v>1.000583755999799</v>
       </c>
       <c r="L5">
-        <v>0.3246304288322222</v>
+        <v>0.1429875248828054</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.458704980041261</v>
+        <v>0.7116304177548614</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03011810345370236</v>
+        <v>0.09744735241851288</v>
       </c>
       <c r="E6">
-        <v>0.0632275609081614</v>
+        <v>0.02759665795195265</v>
       </c>
       <c r="F6">
-        <v>6.317057169088514</v>
+        <v>6.247563739004505</v>
       </c>
       <c r="G6">
-        <v>0.002691993034184239</v>
+        <v>0.0008897457562289323</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2089367378218938</v>
+        <v>0.1570938279347693</v>
       </c>
       <c r="K6">
-        <v>1.297161484278575</v>
+        <v>0.9939740051055708</v>
       </c>
       <c r="L6">
-        <v>0.3247077937091234</v>
+        <v>0.1422092296839637</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.459378932901814</v>
+        <v>0.7320480574718147</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03155434605145047</v>
+        <v>0.1021763861373302</v>
       </c>
       <c r="E7">
-        <v>0.06329672565859878</v>
+        <v>0.0278058565656778</v>
       </c>
       <c r="F7">
-        <v>6.37108325593104</v>
+        <v>6.431982612280905</v>
       </c>
       <c r="G7">
-        <v>0.002690202030717925</v>
+        <v>0.0008868277404915088</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2097870649932645</v>
+        <v>0.1594162195663067</v>
       </c>
       <c r="K7">
-        <v>1.3020458982393</v>
+        <v>1.040111635523687</v>
       </c>
       <c r="L7">
-        <v>0.3241994037994331</v>
+        <v>0.1476598220171113</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.464445455863938</v>
+        <v>0.8257679767734771</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0378760887763292</v>
+        <v>0.1233390301058392</v>
       </c>
       <c r="E8">
-        <v>0.06359509938244234</v>
+        <v>0.02875224856240344</v>
       </c>
       <c r="F8">
-        <v>6.611104026415916</v>
+        <v>7.260695292315063</v>
       </c>
       <c r="G8">
-        <v>0.002682701883713598</v>
+        <v>0.0008742934990470393</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2134700090986676</v>
+        <v>0.1697899123746502</v>
       </c>
       <c r="K8">
-        <v>1.326610793713627</v>
+        <v>1.250736301748532</v>
       </c>
       <c r="L8">
-        <v>0.3226646532218354</v>
+        <v>0.1730083995572897</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.48189833754131</v>
+        <v>1.025070832620059</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05022620431992664</v>
+        <v>0.1663742166371236</v>
       </c>
       <c r="E9">
-        <v>0.06415659284751207</v>
+        <v>0.03073777543648371</v>
       </c>
       <c r="F9">
-        <v>7.087893104747536</v>
+        <v>8.957246827920983</v>
       </c>
       <c r="G9">
-        <v>0.002669432124654762</v>
+        <v>0.0008507967827331744</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2204515035295813</v>
+        <v>0.1908679423855162</v>
       </c>
       <c r="K9">
-        <v>1.385673984544269</v>
+        <v>1.695853497993312</v>
       </c>
       <c r="L9">
-        <v>0.3222105579430661</v>
+        <v>0.2284578543191174</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.49930747183933</v>
+        <v>1.183700142662843</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05928255192793586</v>
+        <v>0.1994499725590657</v>
       </c>
       <c r="E10">
-        <v>0.06455564948053061</v>
+        <v>0.03232837089801688</v>
       </c>
       <c r="F10">
-        <v>7.442243346990466</v>
+        <v>10.26677837952778</v>
       </c>
       <c r="G10">
-        <v>0.002660549019360047</v>
+        <v>0.0008340334560205006</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2254424290246391</v>
+        <v>0.2071160599293904</v>
       </c>
       <c r="K10">
-        <v>1.435784594895324</v>
+        <v>2.049982230891175</v>
       </c>
       <c r="L10">
-        <v>0.323444391816011</v>
+        <v>0.2738958635354152</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.508224594396296</v>
+        <v>1.259226945032736</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06340124654663271</v>
+        <v>0.2149492933298944</v>
       </c>
       <c r="E11">
-        <v>0.06473446916241787</v>
+        <v>0.03309505905446208</v>
       </c>
       <c r="F11">
-        <v>7.604400330647252</v>
+        <v>10.88128169174433</v>
       </c>
       <c r="G11">
-        <v>0.002656693712033554</v>
+        <v>0.0008264743935387007</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2276847154870509</v>
+        <v>0.2147558625626758</v>
       </c>
       <c r="K11">
-        <v>1.46005741914243</v>
+        <v>2.2189569141498</v>
       </c>
       <c r="L11">
-        <v>0.3243482811191853</v>
+        <v>0.2959042999207355</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.511744776808314</v>
+        <v>1.288380053962953</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.06496091869037457</v>
+        <v>0.2208968048059745</v>
       </c>
       <c r="E12">
-        <v>0.06480180972423399</v>
+        <v>0.03339305476680421</v>
       </c>
       <c r="F12">
-        <v>7.66594849309439</v>
+        <v>11.11717088201351</v>
       </c>
       <c r="G12">
-        <v>0.002655260334331739</v>
+        <v>0.0008236175512177026</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.228529910956162</v>
+        <v>0.217692702667172</v>
       </c>
       <c r="K12">
-        <v>1.469462657890205</v>
+        <v>2.284271634010366</v>
       </c>
       <c r="L12">
-        <v>0.3247400018866529</v>
+        <v>0.304462056949319</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.510980261824557</v>
+        <v>1.282075626941491</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.06462501217649219</v>
+        <v>0.2196121923977046</v>
       </c>
       <c r="E13">
-        <v>0.06478732313794655</v>
+        <v>0.03332850886171634</v>
       </c>
       <c r="F13">
-        <v>7.652686568630997</v>
+        <v>11.06621753318075</v>
       </c>
       <c r="G13">
-        <v>0.002655567859731978</v>
+        <v>0.0008242326431053826</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2283480547566086</v>
+        <v>0.2170581111006342</v>
       </c>
       <c r="K13">
-        <v>1.46742754965598</v>
+        <v>2.270142476918181</v>
       </c>
       <c r="L13">
-        <v>0.3246534362851605</v>
+        <v>0.3026084966791274</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.508511326662131</v>
+        <v>1.261613882360365</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.06352956050905334</v>
+        <v>0.2154369485390362</v>
       </c>
       <c r="E14">
-        <v>0.06474001672771212</v>
+        <v>0.03311941233626703</v>
       </c>
       <c r="F14">
-        <v>7.609461045870091</v>
+        <v>10.9006214626886</v>
       </c>
       <c r="G14">
-        <v>0.002656575256334257</v>
+        <v>0.000826239271632154</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2277543278209677</v>
+        <v>0.2149965494217554</v>
       </c>
       <c r="K14">
-        <v>1.460826904886517</v>
+        <v>2.224302567595743</v>
       </c>
       <c r="L14">
-        <v>0.3243795164242727</v>
+        <v>0.2966036741136264</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.507017715897234</v>
+        <v>1.249154663155593</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0628585712803158</v>
+        <v>0.2128901031955479</v>
       </c>
       <c r="E15">
-        <v>0.06471099187228324</v>
+        <v>0.03299238118843517</v>
       </c>
       <c r="F15">
-        <v>7.583002903636952</v>
+        <v>10.79962018332748</v>
       </c>
       <c r="G15">
-        <v>0.002657195767904959</v>
+        <v>0.0008274689927421217</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2273901477158944</v>
+        <v>0.2137397497659563</v>
       </c>
       <c r="K15">
-        <v>1.456811679284897</v>
+        <v>2.19640347495212</v>
       </c>
       <c r="L15">
-        <v>0.3242181759822671</v>
+        <v>0.292955677403711</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.49874479171163</v>
+        <v>1.17883767784474</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.05901337805003948</v>
+        <v>0.1984472507655397</v>
       </c>
       <c r="E16">
-        <v>0.06454390992382697</v>
+        <v>0.03227925335722581</v>
       </c>
       <c r="F16">
-        <v>7.431665742052559</v>
+        <v>10.22703746691209</v>
       </c>
       <c r="G16">
-        <v>0.002660804695648875</v>
+        <v>0.000834528472076727</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2252953359794887</v>
+        <v>0.2066224445971869</v>
       </c>
       <c r="K16">
-        <v>1.434228138383673</v>
+        <v>2.039113884157501</v>
       </c>
       <c r="L16">
-        <v>0.3233922291721854</v>
+        <v>0.2724870531849604</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.493925134590143</v>
+        <v>1.136608516415578</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.05665431794614051</v>
+        <v>0.1897118229859842</v>
       </c>
       <c r="E17">
-        <v>0.06444072665748868</v>
+        <v>0.03185378244041681</v>
       </c>
       <c r="F17">
-        <v>7.339074756259095</v>
+        <v>9.88091598951803</v>
       </c>
       <c r="G17">
-        <v>0.002663066098240741</v>
+        <v>0.0008388736460641717</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2240031310109174</v>
+        <v>0.2023252306987615</v>
       </c>
       <c r="K17">
-        <v>1.420753085231297</v>
+        <v>1.944769668688252</v>
       </c>
       <c r="L17">
-        <v>0.322973407944886</v>
+        <v>0.2602937799607759</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.491246894923222</v>
+        <v>1.112631564287</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05529733689422756</v>
+        <v>0.1847291892884755</v>
       </c>
       <c r="E18">
-        <v>0.06438112204682689</v>
+        <v>0.03161301985119636</v>
       </c>
       <c r="F18">
-        <v>7.285909071605317</v>
+        <v>9.683571882224669</v>
       </c>
       <c r="G18">
-        <v>0.002664384281722959</v>
+        <v>0.0008413794172133759</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2232572350045672</v>
+        <v>0.1998764237140094</v>
       </c>
       <c r="K18">
-        <v>1.413141562474465</v>
+        <v>1.891233845184644</v>
       </c>
       <c r="L18">
-        <v>0.3227647507689682</v>
+        <v>0.2534043951205263</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.490356216390182</v>
+        <v>1.104565046548544</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05483786209158836</v>
+        <v>0.1830489557894879</v>
       </c>
       <c r="E19">
-        <v>0.06436089645556553</v>
+        <v>0.03153214073372501</v>
       </c>
       <c r="F19">
-        <v>7.267923437300226</v>
+        <v>9.617038884069871</v>
       </c>
       <c r="G19">
-        <v>0.002664833603573058</v>
+        <v>0.0008422290641796467</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2230042276060047</v>
+        <v>0.1990509946178207</v>
       </c>
       <c r="K19">
-        <v>1.410588263507606</v>
+        <v>1.873227179326477</v>
       </c>
       <c r="L19">
-        <v>0.3226996348013529</v>
+        <v>0.2510921657921443</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.494428477070556</v>
+        <v>1.141071108634947</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.05690545431075122</v>
+        <v>0.1906373136454675</v>
       </c>
       <c r="E20">
-        <v>0.06445173710888774</v>
+        <v>0.03189865518377077</v>
       </c>
       <c r="F20">
-        <v>7.348921856128754</v>
+        <v>9.917578238441365</v>
       </c>
       <c r="G20">
-        <v>0.002662823559617734</v>
+        <v>0.000838410445240637</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2241409621458175</v>
+        <v>0.2027802581337923</v>
       </c>
       <c r="K20">
-        <v>1.422173135907741</v>
+        <v>1.954736058369747</v>
       </c>
       <c r="L20">
-        <v>0.3230146544853625</v>
+        <v>0.261578744232466</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.509232619154204</v>
+        <v>1.267608394884235</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.06385131955255474</v>
+        <v>0.2166610812292475</v>
       </c>
       <c r="E21">
-        <v>0.06475392180746464</v>
+        <v>0.03318060796728384</v>
       </c>
       <c r="F21">
-        <v>7.622153516303513</v>
+        <v>10.94917023334341</v>
       </c>
       <c r="G21">
-        <v>0.00265627864027357</v>
+        <v>0.0008256497584782636</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2279288248624951</v>
+        <v>0.2156008204791959</v>
       </c>
       <c r="K21">
-        <v>1.462759866052892</v>
+        <v>2.237729130640417</v>
       </c>
       <c r="L21">
-        <v>0.3244586302192118</v>
+        <v>0.2983610944025656</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.519744197646901</v>
+        <v>1.353568915765294</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.06839099206915478</v>
+        <v>0.2341327494412866</v>
       </c>
       <c r="E22">
-        <v>0.0649492411039887</v>
+        <v>0.03406401068165277</v>
       </c>
       <c r="F22">
-        <v>7.801560916082906</v>
+        <v>11.64224802644748</v>
       </c>
       <c r="G22">
-        <v>0.002652155800564397</v>
+        <v>0.0008173403467866996</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2303816853432821</v>
+        <v>0.2242398521107276</v>
       </c>
       <c r="K22">
-        <v>1.490531528725342</v>
+        <v>2.430532728732999</v>
       </c>
       <c r="L22">
-        <v>0.3256905949321123</v>
+        <v>0.3237221115723941</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.514057451469796</v>
+        <v>1.307366430746413</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.06596801410347553</v>
+        <v>0.2247605301692204</v>
       </c>
       <c r="E23">
-        <v>0.06484518939814432</v>
+        <v>0.03358779638461451</v>
       </c>
       <c r="F23">
-        <v>7.705729897148672</v>
+        <v>11.27043273151321</v>
       </c>
       <c r="G23">
-        <v>0.002654342138740046</v>
+        <v>0.000821773915877135</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2290745829918279</v>
+        <v>0.2196022410123035</v>
       </c>
       <c r="K23">
-        <v>1.475594859095338</v>
+        <v>2.326839189039532</v>
       </c>
       <c r="L23">
-        <v>0.3250066400173068</v>
+        <v>0.3100539407078884</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.494200627365501</v>
+        <v>1.139052637733727</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.05679191783423221</v>
+        <v>0.1902187773127082</v>
       </c>
       <c r="E24">
-        <v>0.0644467601669203</v>
+        <v>0.03187835634314196</v>
       </c>
       <c r="F24">
-        <v>7.344469776717403</v>
+        <v>9.900998145579365</v>
       </c>
       <c r="G24">
-        <v>0.002662933154997476</v>
+        <v>0.0008386198343089359</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2240786580133829</v>
+        <v>0.2025744731761776</v>
       </c>
       <c r="K24">
-        <v>1.421530709145884</v>
+        <v>1.950228075349571</v>
       </c>
       <c r="L24">
-        <v>0.3229959068634827</v>
+        <v>0.2609974382544067</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.476371743253395</v>
+        <v>0.9692294045944152</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04688902291199781</v>
+        <v>0.1545175533365182</v>
       </c>
       <c r="E25">
-        <v>0.06400712755600235</v>
+        <v>0.03018179272211441</v>
       </c>
       <c r="F25">
-        <v>6.958221205313237</v>
+        <v>8.488758839346247</v>
       </c>
       <c r="G25">
-        <v>0.00267286908120039</v>
+        <v>0.000857052792116599</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2185877341734965</v>
+        <v>0.1850570533679061</v>
       </c>
       <c r="K25">
-        <v>1.368521958395377</v>
+        <v>1.571281974035173</v>
       </c>
       <c r="L25">
-        <v>0.3220588503189674</v>
+        <v>0.212728227218193</v>
       </c>
       <c r="M25">
         <v>0</v>
